--- a/testcases/ControlPanel.xlsx
+++ b/testcases/ControlPanel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID</t>
   </si>
@@ -41,6 +41,12 @@
   <si>
     <t>差旅申请单提单</t>
   </si>
+  <si>
+    <t>testFunc1004414</t>
+  </si>
+  <si>
+    <t>差旅申请单提单这是一个名字比较长的用例你怎么说</t>
+  </si>
 </sst>
 </file>
 
@@ -52,7 +58,7 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,7 +69,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -73,15 +78,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -95,97 +99,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,6 +159,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -207,17 +206,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,24 +230,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -262,157 +374,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,41 +421,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,7 +443,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,15 +487,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -523,161 +501,178 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1043,564 +1038,511 @@
   <dimension ref="A1:F98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="7.58333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.9166666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="40.8333333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.9166666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8333333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="41.4166666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.9833333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14" style="3" customWidth="1"/>
-    <col min="7" max="7" width="7.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.9833333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14" style="2" customWidth="1"/>
+    <col min="7" max="7" width="7.875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="5"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="5"/>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="3"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="5"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="3"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="5"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="3"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="5"/>
+      <c r="A14" s="2"/>
+      <c r="B14" s="3"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="5"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="5"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="3"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="5"/>
+      <c r="A17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="5"/>
+      <c r="A18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="5"/>
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="3"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="5"/>
+      <c r="A20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="3"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="3"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="5"/>
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="3"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="5"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="3"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="5"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="3"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="5"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="3"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="5"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="5"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="5"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="3"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="5"/>
+      <c r="A29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="3"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="5"/>
+      <c r="A30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="3"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="5"/>
+      <c r="A31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="3"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="2"/>
+      <c r="A32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="3"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="2"/>
+      <c r="B35" s="3"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="4"/>
+      <c r="A36" s="2"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="4"/>
+      <c r="A37" s="2"/>
+      <c r="B37" s="3"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="3"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="5"/>
+      <c r="A38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="D38" s="4"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="3"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="5"/>
+      <c r="A39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="3"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="5"/>
+      <c r="A40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="3"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="5"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="D41" s="4"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="3"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="5"/>
+      <c r="A42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="D42" s="4"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="5"/>
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
+      <c r="D43" s="4"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="3"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="5"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="3"/>
+      <c r="D44" s="4"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="5"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="3"/>
+      <c r="D45" s="4"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:6">
-      <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
+      <c r="A46" s="2"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:6">
-      <c r="A47" s="3"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:6">
-      <c r="A48" s="3"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
+      <c r="A48" s="2"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="1:6">
-      <c r="A49" s="3"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
+      <c r="A49" s="2"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="1:6">
-      <c r="A50" s="3"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
+      <c r="A50" s="2"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="3"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="5"/>
+      <c r="A51" s="2"/>
+      <c r="B51" s="3"/>
+      <c r="D51" s="4"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="3"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="5"/>
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="D52" s="4"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="3"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="5"/>
+      <c r="A53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="D53" s="4"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="3"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="5"/>
+      <c r="A54" s="2"/>
+      <c r="B54" s="3"/>
+      <c r="D54" s="4"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="3"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="5"/>
+      <c r="A55" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="D55" s="4"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="3"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="5"/>
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="D56" s="4"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="3"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="5"/>
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="D57" s="4"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="5"/>
+      <c r="A58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="3"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="5"/>
+      <c r="A59" s="2"/>
+      <c r="B59" s="3"/>
+      <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="3"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="5"/>
+      <c r="A60" s="2"/>
+      <c r="B60" s="3"/>
+      <c r="D60" s="4"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="5"/>
+      <c r="A61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="D61" s="4"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="3"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="5"/>
+      <c r="A62" s="2"/>
+      <c r="B62" s="3"/>
+      <c r="D62" s="4"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="3"/>
-      <c r="B63" s="4"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="5"/>
+      <c r="A63" s="2"/>
+      <c r="B63" s="3"/>
+      <c r="D63" s="4"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="3"/>
-      <c r="B64" s="4"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="5"/>
+      <c r="A64" s="2"/>
+      <c r="B64" s="3"/>
+      <c r="D64" s="4"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="3"/>
-      <c r="B65" s="4"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="5"/>
+      <c r="A65" s="2"/>
+      <c r="B65" s="3"/>
+      <c r="D65" s="4"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="5"/>
+      <c r="A66" s="2"/>
+      <c r="B66" s="3"/>
+      <c r="D66" s="4"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="3"/>
-      <c r="B67" s="4"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="5"/>
+      <c r="A67" s="2"/>
+      <c r="B67" s="3"/>
+      <c r="D67" s="4"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="3"/>
-      <c r="B68" s="4"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="5"/>
+      <c r="A68" s="2"/>
+      <c r="B68" s="3"/>
+      <c r="D68" s="4"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="3"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="5"/>
+      <c r="A69" s="2"/>
+      <c r="B69" s="3"/>
+      <c r="D69" s="4"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="5"/>
+      <c r="A70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="D70" s="4"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="3"/>
-      <c r="B71" s="4"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="5"/>
+      <c r="A71" s="2"/>
+      <c r="B71" s="3"/>
+      <c r="D71" s="4"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="5"/>
+      <c r="A72" s="2"/>
+      <c r="B72" s="3"/>
+      <c r="D72" s="4"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="3"/>
-      <c r="B73" s="4"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="3"/>
-      <c r="B74" s="4"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="2"/>
+      <c r="A73" s="2"/>
+      <c r="B73" s="3"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="3"/>
+      <c r="A75" s="2"/>
     </row>
     <row r="76" spans="1:1">
-      <c r="A76" s="3"/>
+      <c r="A76" s="2"/>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="3"/>
+      <c r="A77" s="2"/>
     </row>
     <row r="78" spans="1:1">
-      <c r="A78" s="3"/>
+      <c r="A78" s="2"/>
     </row>
     <row r="79" spans="1:1">
-      <c r="A79" s="3"/>
+      <c r="A79" s="2"/>
     </row>
     <row r="80" spans="1:1">
-      <c r="A80" s="3"/>
+      <c r="A80" s="2"/>
     </row>
     <row r="81" spans="1:1">
-      <c r="A81" s="3"/>
+      <c r="A81" s="2"/>
     </row>
     <row r="82" spans="1:1">
-      <c r="A82" s="3"/>
+      <c r="A82" s="2"/>
     </row>
     <row r="83" spans="1:1">
-      <c r="A83" s="3"/>
+      <c r="A83" s="2"/>
     </row>
     <row r="84" spans="1:1">
-      <c r="A84" s="3"/>
+      <c r="A84" s="2"/>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="3"/>
+      <c r="A85" s="2"/>
     </row>
     <row r="86" spans="1:1">
-      <c r="A86" s="3"/>
+      <c r="A86" s="2"/>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="3"/>
+      <c r="A87" s="2"/>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="3"/>
+      <c r="A88" s="2"/>
     </row>
     <row r="89" spans="1:1">
-      <c r="A89" s="3"/>
+      <c r="A89" s="2"/>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="3"/>
+      <c r="A90" s="2"/>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="3"/>
+      <c r="A91" s="2"/>
     </row>
     <row r="92" spans="1:1">
-      <c r="A92" s="3"/>
+      <c r="A92" s="2"/>
     </row>
     <row r="93" spans="1:1">
-      <c r="A93" s="3"/>
+      <c r="A93" s="2"/>
     </row>
     <row r="94" spans="1:1">
-      <c r="A94" s="3"/>
+      <c r="A94" s="2"/>
     </row>
     <row r="95" spans="1:1">
-      <c r="A95" s="3"/>
+      <c r="A95" s="2"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="3"/>
+      <c r="A96" s="2"/>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="3"/>
+      <c r="A97" s="2"/>
     </row>
     <row r="98" spans="1:1">
-      <c r="A98" s="3"/>
+      <c r="A98" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B9 B74 B2:B7 B10:B73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8 B9 B74 B2:B3 B4:B7 B10:B73">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/testcases/ControlPanel.xlsx
+++ b/testcases/ControlPanel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -42,6 +42,9 @@
     <t>差旅申请单提单</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>testFunc1004414</t>
   </si>
   <si>
@@ -53,9 +56,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -78,31 +81,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -115,7 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,99 +195,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,61 +233,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,13 +377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,61 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,37 +407,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,24 +424,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,9 +459,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,17 +506,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -541,133 +544,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,7 +1041,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD118"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="4"/>
@@ -1090,13 +1093,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
